--- a/datasets/Crawl-Done-shop_ggmap.xlsx
+++ b/datasets/Crawl-Done-shop_ggmap.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20373"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Hackathon\datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CACBAA-8C25-4D38-BAC7-04C56FEA9715}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$G$121</definedName>
@@ -18,9 +23,9 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Query - data_preprocess_shop" description="Connection to the 'data_preprocess_shop' query in the workbook." type="5" background="1" refreshedVersion="2" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=data_preprocess_shop;Extended Properties=&quot;&quot;" command="SELECT * FROM [data_preprocess_shop]" commandType="2"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Query - data_preprocess_shop" description="Connection to the 'data_preprocess_shop' query in the workbook." type="5" refreshedVersion="2" background="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=data_preprocess_shop;Extended Properties=&quot;&quot;" command="SELECT * FROM [data_preprocess_shop]"/>
   </connection>
 </connections>
 </file>
@@ -409,14 +414,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,353 +423,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -778,306 +440,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1089,13 +461,16 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="8">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="Review" tableColumnId="1"/>
       <queryTableField id="2" name="giai_tri" tableColumnId="2"/>
@@ -1110,16 +485,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data_preprocess_shop" displayName="data_preprocess_shop" ref="A1:G121" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G121"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="data_preprocess_shop" displayName="data_preprocess_shop" ref="A1:G121" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G121" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Review" uniqueName="1" queryTableFieldId="1" dataDxfId="0"/>
-    <tableColumn id="2" name="giai_tri" uniqueName="2" queryTableFieldId="2"/>
-    <tableColumn id="3" name="luu_tru" uniqueName="3" queryTableFieldId="3"/>
-    <tableColumn id="4" name="nha_hang" uniqueName="4" queryTableFieldId="4"/>
-    <tableColumn id="5" name="an_uong" uniqueName="5" queryTableFieldId="5"/>
-    <tableColumn id="6" name="di_chuyen" uniqueName="6" queryTableFieldId="6"/>
-    <tableColumn id="7" name="mua_sam" uniqueName="7" queryTableFieldId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Review" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="giai_tri" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="luu_tru" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="nha_hang" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="an_uong" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="di_chuyen" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="mua_sam" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1377,27 +752,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
       <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="81.1363636363636" customWidth="1"/>
-    <col min="2" max="2" width="9.42727272727273" customWidth="1"/>
-    <col min="3" max="3" width="9.70909090909091" customWidth="1"/>
-    <col min="4" max="4" width="11.8545454545455" customWidth="1"/>
-    <col min="5" max="5" width="10.8545454545455" customWidth="1"/>
-    <col min="6" max="6" width="12.4272727272727" customWidth="1"/>
-    <col min="7" max="7" width="11.7090909090909" customWidth="1"/>
+    <col min="1" max="1" width="81.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4185,26 +3560,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
